--- a/购车/买房.xlsx
+++ b/购车/买房.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860BD5B9-F9D6-40A9-865C-F56C7B577B46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B101E-4F71-4778-91B3-7B18D42D7780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>买房考虑的因素</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>楼层选择首选4 5 6 7 8 次选8-15 最后选15以后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华阳、中和场、龙泉驿、简阳才是主城区，才是市中心了哈[思考]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧华路以南的天府新区就别考虑了，天府大道两遍的还可以</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,11 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="43.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -457,6 +468,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
